--- a/Code/Results/Cases/Case_2_66/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_66/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9909722833263064</v>
+        <v>1.020416295938007</v>
       </c>
       <c r="D2">
-        <v>1.01155634380614</v>
+        <v>1.026373181646233</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9998957309852591</v>
+        <v>1.031622550597911</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042313620221366</v>
+        <v>1.030123242816486</v>
       </c>
       <c r="J2">
-        <v>1.01342640594298</v>
+        <v>1.025613529653269</v>
       </c>
       <c r="K2">
-        <v>1.022856994334702</v>
+        <v>1.029196018135634</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.011356518631848</v>
+        <v>1.034430135674624</v>
       </c>
       <c r="N2">
-        <v>1.014865587681052</v>
+        <v>1.027070018504895</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9958123549446871</v>
+        <v>1.021400348210294</v>
       </c>
       <c r="D3">
-        <v>1.015192333309852</v>
+        <v>1.027113678471736</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.005530819941619</v>
+        <v>1.032833526293307</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043836622951133</v>
+        <v>1.030336961472128</v>
       </c>
       <c r="J3">
-        <v>1.016417834049084</v>
+        <v>1.02623457961382</v>
       </c>
       <c r="K3">
-        <v>1.025634446792431</v>
+        <v>1.029744197124219</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.01609341866479</v>
+        <v>1.035448635651216</v>
       </c>
       <c r="N3">
-        <v>1.017861263958189</v>
+        <v>1.027691950427623</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9988701441785203</v>
+        <v>1.022036788193595</v>
       </c>
       <c r="D4">
-        <v>1.017489057347494</v>
+        <v>1.027592165882076</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.009091394434221</v>
+        <v>1.033616829310957</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044783125184384</v>
+        <v>1.030473249913109</v>
       </c>
       <c r="J4">
-        <v>1.018302796007714</v>
+        <v>1.026635568282763</v>
       </c>
       <c r="K4">
-        <v>1.027380889510713</v>
+        <v>1.030097580749151</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.019081318835109</v>
+        <v>1.036106835780602</v>
       </c>
       <c r="N4">
-        <v>1.019748902779009</v>
+        <v>1.02809350854647</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.0001386043122</v>
+        <v>1.022304274051802</v>
       </c>
       <c r="D5">
-        <v>1.018441652866194</v>
+        <v>1.027793162494624</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.01056859007401</v>
+        <v>1.033946064049698</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045171946101678</v>
+        <v>1.030530066034013</v>
       </c>
       <c r="J5">
-        <v>1.019083520359419</v>
+        <v>1.026803934940812</v>
       </c>
       <c r="K5">
-        <v>1.028103332878796</v>
+        <v>1.030245825664211</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.020319669237175</v>
+        <v>1.036383343335093</v>
       </c>
       <c r="N5">
-        <v>1.020530735848844</v>
+        <v>1.028262114304485</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00035060490751</v>
+        <v>1.022349181797588</v>
       </c>
       <c r="D6">
-        <v>1.018600851495902</v>
+        <v>1.027826901338637</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.0108154879691</v>
+        <v>1.034001340178454</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045236704693675</v>
+        <v>1.030539577581413</v>
       </c>
       <c r="J6">
-        <v>1.019213932325522</v>
+        <v>1.02683219218369</v>
       </c>
       <c r="K6">
-        <v>1.028223955515887</v>
+        <v>1.030270698004229</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.020526572130567</v>
+        <v>1.036429758475459</v>
       </c>
       <c r="N6">
-        <v>1.020661333014897</v>
+        <v>1.028290411675889</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.998887159447726</v>
+        <v>1.022040362641411</v>
       </c>
       <c r="D7">
-        <v>1.017501836259171</v>
+        <v>1.027594852236186</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.009111208999305</v>
+        <v>1.03362122881917</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044788356028242</v>
+        <v>1.030474010977554</v>
       </c>
       <c r="J7">
-        <v>1.018313273570673</v>
+        <v>1.02663781882767</v>
       </c>
       <c r="K7">
-        <v>1.027390588548417</v>
+        <v>1.030099562853277</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.019097934612582</v>
+        <v>1.036110531272218</v>
       </c>
       <c r="N7">
-        <v>1.019759395221308</v>
+        <v>1.028095762287409</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9926237752852298</v>
+        <v>1.020748924795312</v>
       </c>
       <c r="D8">
-        <v>1.012797025372066</v>
+        <v>1.026623573027708</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>1.001818408804906</v>
+        <v>1.032031863925194</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042836549366502</v>
+        <v>1.03019588434908</v>
       </c>
       <c r="J8">
-        <v>1.014448131514124</v>
+        <v>1.025823596883825</v>
       </c>
       <c r="K8">
-        <v>1.023806398650415</v>
+        <v>1.0293815518751</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.012973804800077</v>
+        <v>1.034774516342468</v>
       </c>
       <c r="N8">
-        <v>1.015888764219701</v>
+        <v>1.027280384055011</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9809861381463669</v>
+        <v>1.0184708829989</v>
       </c>
       <c r="D9">
-        <v>1.004055468271937</v>
+        <v>1.024907000218624</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9882701991153319</v>
+        <v>1.029229015656958</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039086874325295</v>
+        <v>1.029690470761215</v>
       </c>
       <c r="J9">
-        <v>1.007228665646514</v>
+        <v>1.024382160812531</v>
       </c>
       <c r="K9">
-        <v>1.017083089227578</v>
+        <v>1.02810619455814</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.001556494817433</v>
+        <v>1.032413840623586</v>
       </c>
       <c r="N9">
-        <v>1.008659045882475</v>
+        <v>1.02583690097916</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9727730793960683</v>
+        <v>1.016950585792647</v>
       </c>
       <c r="D10">
-        <v>0.9978910426159036</v>
+        <v>1.023759253726228</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9787070583227649</v>
+        <v>1.027358913980313</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036360573654988</v>
+        <v>1.029343244027463</v>
       </c>
       <c r="J10">
-        <v>1.002110193253424</v>
+        <v>1.023416723387171</v>
       </c>
       <c r="K10">
-        <v>1.012298479628508</v>
+        <v>1.027249164808804</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9934717086333072</v>
+        <v>1.030835672921002</v>
       </c>
       <c r="N10">
-        <v>1.003533304671489</v>
+        <v>1.02487009252192</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.969096337105639</v>
+        <v>1.016291895986903</v>
       </c>
       <c r="D11">
-        <v>0.995133653002735</v>
+        <v>1.023261475029037</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9744247139180887</v>
+        <v>1.026548758755526</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035121896430726</v>
+        <v>1.029190454348271</v>
       </c>
       <c r="J11">
-        <v>0.9998137556693595</v>
+        <v>1.022997616177442</v>
       </c>
       <c r="K11">
-        <v>1.010147928735179</v>
+        <v>1.026876453847202</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9898456153368485</v>
+        <v>1.030151256936482</v>
       </c>
       <c r="N11">
-        <v>1.00123360588265</v>
+        <v>1.02445039013188</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9677113582509437</v>
+        <v>1.016047170019769</v>
       </c>
       <c r="D12">
-        <v>0.9940954185151659</v>
+        <v>1.023076458533907</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9728113552056248</v>
+        <v>1.026247771084044</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03465264062122</v>
+        <v>1.029133335275024</v>
       </c>
       <c r="J12">
-        <v>0.9989480063022301</v>
+        <v>1.022841780807762</v>
       </c>
       <c r="K12">
-        <v>1.009336622067886</v>
+        <v>1.026737770458211</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9884786661228853</v>
+        <v>1.029896874090527</v>
       </c>
       <c r="N12">
-        <v>1.000366627052117</v>
+        <v>1.024294333458101</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9680093331306047</v>
+        <v>1.01609966725937</v>
       </c>
       <c r="D13">
-        <v>0.9943187707830788</v>
+        <v>1.023116150593501</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9731584784039768</v>
+        <v>1.026312336698756</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034753718994637</v>
+        <v>1.029145604078687</v>
       </c>
       <c r="J13">
-        <v>0.9991343016211058</v>
+        <v>1.022875215278313</v>
       </c>
       <c r="K13">
-        <v>1.009511226809863</v>
+        <v>1.026767529461964</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9887728098996348</v>
+        <v>1.029951447346376</v>
       </c>
       <c r="N13">
-        <v>1.000553186931714</v>
+        <v>1.024327815409436</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9689822546705684</v>
+        <v>1.016271668073557</v>
       </c>
       <c r="D14">
-        <v>0.9950481228670234</v>
+        <v>1.023246183939723</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9742918252480551</v>
+        <v>1.026523880252519</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035083296913642</v>
+        <v>1.029185740337162</v>
       </c>
       <c r="J14">
-        <v>0.9997424570130679</v>
+        <v>1.022984738047509</v>
       </c>
       <c r="K14">
-        <v>1.0100811248123</v>
+        <v>1.026864995169707</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9897330395288001</v>
+        <v>1.030130232847518</v>
       </c>
       <c r="N14">
-        <v>1.001162205974089</v>
+        <v>1.024437493713526</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9695791128589227</v>
+        <v>1.0163776355866</v>
       </c>
       <c r="D15">
-        <v>0.9954956191022625</v>
+        <v>1.023326285976234</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9749870632102843</v>
+        <v>1.026654211228135</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035285134429445</v>
+        <v>1.029210421091588</v>
       </c>
       <c r="J15">
-        <v>1.000115449651952</v>
+        <v>1.023052197397883</v>
       </c>
       <c r="K15">
-        <v>1.010430581193835</v>
+        <v>1.026925014953706</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9903219724033701</v>
+        <v>1.030240367221882</v>
       </c>
       <c r="N15">
-        <v>1.001535728305303</v>
+        <v>1.024505048863915</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9730144569244465</v>
+        <v>1.016994292584457</v>
       </c>
       <c r="D16">
-        <v>0.9980721196753084</v>
+        <v>1.023792272903852</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9789881621323558</v>
+        <v>1.027412672991497</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036441520255881</v>
+        <v>1.02935333281624</v>
       </c>
       <c r="J16">
-        <v>1.002260852863425</v>
+        <v>1.023444515677939</v>
       </c>
       <c r="K16">
-        <v>1.012439489674639</v>
+        <v>1.027273866470481</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9937096176722818</v>
+        <v>1.030881072944418</v>
       </c>
       <c r="N16">
-        <v>1.003684178235418</v>
+        <v>1.024897924280929</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9751363129567531</v>
+        <v>1.017381000180749</v>
       </c>
       <c r="D17">
-        <v>0.999664163618583</v>
+        <v>1.024084361128731</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9814590906568629</v>
+        <v>1.027888330834929</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037151033616246</v>
+        <v>1.029442324881328</v>
       </c>
       <c r="J17">
-        <v>1.003584675175202</v>
+        <v>1.023690321007975</v>
       </c>
       <c r="K17">
-        <v>1.013678083826517</v>
+        <v>1.027492260499639</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>0.9958002112461741</v>
+        <v>1.03128268637582</v>
       </c>
       <c r="N17">
-        <v>1.005009880526722</v>
+        <v>1.025144078682728</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9763624204631024</v>
+        <v>1.01760652247856</v>
       </c>
       <c r="D18">
-        <v>1.000584326032442</v>
+        <v>1.024254654333901</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9828867993949829</v>
+        <v>1.028165736591434</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0375592980656</v>
+        <v>1.02949399718683</v>
       </c>
       <c r="J18">
-        <v>1.004349160805347</v>
+        <v>1.023833592208224</v>
       </c>
       <c r="K18">
-        <v>1.014392980865018</v>
+        <v>1.027619490553001</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>0.9970076153259022</v>
+        <v>1.031516838601541</v>
       </c>
       <c r="N18">
-        <v>1.00577545181415</v>
+        <v>1.025287553344514</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9767785690279169</v>
+        <v>1.017683413374185</v>
       </c>
       <c r="D19">
-        <v>1.000896666821443</v>
+        <v>1.024312706857649</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.98337135630436</v>
+        <v>1.028260318485469</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037697570835891</v>
+        <v>1.029511576199345</v>
       </c>
       <c r="J19">
-        <v>1.004608549135589</v>
+        <v>1.023882426535153</v>
       </c>
       <c r="K19">
-        <v>1.014635480126206</v>
+        <v>1.027662846334767</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>0.9974173083874363</v>
+        <v>1.031596661178274</v>
       </c>
       <c r="N19">
-        <v>1.006035208505573</v>
+        <v>1.025336457021788</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9749098592247077</v>
+        <v>1.017339514018322</v>
       </c>
       <c r="D20">
-        <v>0.999494231763058</v>
+        <v>1.02405303077911</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9811953942329324</v>
+        <v>1.027837301130768</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037075489886419</v>
+        <v>1.029432801208018</v>
       </c>
       <c r="J20">
-        <v>1.003443440665931</v>
+        <v>1.023663959065125</v>
       </c>
       <c r="K20">
-        <v>1.013545980329318</v>
+        <v>1.027468844968864</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.9955771604733961</v>
+        <v>1.031239607623787</v>
       </c>
       <c r="N20">
-        <v>1.004868445448248</v>
+        <v>1.025117679302895</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9686962955460205</v>
+        <v>1.016221019760209</v>
       </c>
       <c r="D21">
-        <v>0.9948337403407309</v>
+        <v>1.02320789565101</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9739587219782095</v>
+        <v>1.026461587615721</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034986500705841</v>
+        <v>1.029173931316854</v>
       </c>
       <c r="J21">
-        <v>0.9995637284325372</v>
+        <v>1.022952490747205</v>
       </c>
       <c r="K21">
-        <v>1.009913654601125</v>
+        <v>1.026836300625658</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.989450839912375</v>
+        <v>1.030077589407463</v>
       </c>
       <c r="N21">
-        <v>1.000983223578474</v>
+        <v>1.024405200618356</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9646774119649637</v>
+        <v>1.015517435005414</v>
       </c>
       <c r="D22">
-        <v>0.9918219729118576</v>
+        <v>1.022675835473592</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9692765530313986</v>
+        <v>1.025596274317363</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033619863465898</v>
+        <v>1.029009050976622</v>
       </c>
       <c r="J22">
-        <v>0.9970502297539583</v>
+        <v>1.022504234940262</v>
       </c>
       <c r="K22">
-        <v>1.007557197805828</v>
+        <v>1.026437195153753</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.985482246226519</v>
+        <v>1.029346054536984</v>
       </c>
       <c r="N22">
-        <v>0.9984661554434688</v>
+        <v>1.023956308236753</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9668189519468722</v>
+        <v>1.015890451276247</v>
       </c>
       <c r="D23">
-        <v>0.9934265718289481</v>
+        <v>1.022957955931129</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9717717103421604</v>
+        <v>1.026055026731559</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034349535852448</v>
+        <v>1.029096657938545</v>
       </c>
       <c r="J23">
-        <v>0.9983899688566202</v>
+        <v>1.022741951761423</v>
       </c>
       <c r="K23">
-        <v>1.008813523995919</v>
+        <v>1.026648901145663</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.9875975772057588</v>
+        <v>1.029733943363829</v>
       </c>
       <c r="N23">
-        <v>0.999807797129327</v>
+        <v>1.024194362643066</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9750122194790322</v>
+        <v>1.017358259945609</v>
       </c>
       <c r="D24">
-        <v>0.9995710427098801</v>
+        <v>1.024067187853078</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9813145890379227</v>
+        <v>1.027860359372645</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037109642067596</v>
+        <v>1.029437105272888</v>
       </c>
       <c r="J24">
-        <v>1.003507282134495</v>
+        <v>1.023675871210131</v>
       </c>
       <c r="K24">
-        <v>1.013605695508832</v>
+        <v>1.027479425919637</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.9956779845212195</v>
+        <v>1.031259073372561</v>
       </c>
       <c r="N24">
-        <v>1.00493237757902</v>
+        <v>1.025129608364513</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9840709157997684</v>
+        <v>1.019060092851144</v>
       </c>
       <c r="D25">
-        <v>1.006372110645841</v>
+        <v>1.025351370905135</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.9918614647735847</v>
+        <v>1.029953884881316</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040094783595696</v>
+        <v>1.029822946059379</v>
       </c>
       <c r="J25">
-        <v>1.00914651147451</v>
+        <v>1.024755596665057</v>
       </c>
       <c r="K25">
-        <v>1.018872306640129</v>
+        <v>1.028437103430592</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.004587448651884</v>
+        <v>1.033024900902748</v>
       </c>
       <c r="N25">
-        <v>1.010579615271526</v>
+        <v>1.026210867153432</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_66/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_66/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020416295938007</v>
+        <v>0.9909722833263066</v>
       </c>
       <c r="D2">
-        <v>1.026373181646233</v>
+        <v>1.01155634380614</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.031622550597911</v>
+        <v>0.9998957309852594</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030123242816486</v>
+        <v>1.042313620221366</v>
       </c>
       <c r="J2">
-        <v>1.025613529653269</v>
+        <v>1.013426405942981</v>
       </c>
       <c r="K2">
-        <v>1.029196018135634</v>
+        <v>1.022856994334702</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.034430135674624</v>
+        <v>1.011356518631848</v>
       </c>
       <c r="N2">
-        <v>1.027070018504895</v>
+        <v>1.014865587681053</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021400348210294</v>
+        <v>0.9958123549446868</v>
       </c>
       <c r="D3">
-        <v>1.027113678471736</v>
+        <v>1.015192333309852</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.032833526293307</v>
+        <v>1.005530819941618</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030336961472128</v>
+        <v>1.043836622951133</v>
       </c>
       <c r="J3">
-        <v>1.02623457961382</v>
+        <v>1.016417834049084</v>
       </c>
       <c r="K3">
-        <v>1.029744197124219</v>
+        <v>1.02563444679243</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.035448635651216</v>
+        <v>1.016093418664789</v>
       </c>
       <c r="N3">
-        <v>1.027691950427623</v>
+        <v>1.017861263958189</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022036788193595</v>
+        <v>0.9988701441785204</v>
       </c>
       <c r="D4">
-        <v>1.027592165882076</v>
+        <v>1.017489057347494</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.033616829310957</v>
+        <v>1.009091394434222</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030473249913109</v>
+        <v>1.044783125184385</v>
       </c>
       <c r="J4">
-        <v>1.026635568282763</v>
+        <v>1.018302796007714</v>
       </c>
       <c r="K4">
-        <v>1.030097580749151</v>
+        <v>1.027380889510713</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.036106835780602</v>
+        <v>1.01908131883511</v>
       </c>
       <c r="N4">
-        <v>1.02809350854647</v>
+        <v>1.019748902779009</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022304274051802</v>
+        <v>1.000138604312201</v>
       </c>
       <c r="D5">
-        <v>1.027793162494624</v>
+        <v>1.018441652866195</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.033946064049698</v>
+        <v>1.01056859007401</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030530066034013</v>
+        <v>1.045171946101679</v>
       </c>
       <c r="J5">
-        <v>1.026803934940812</v>
+        <v>1.01908352035942</v>
       </c>
       <c r="K5">
-        <v>1.030245825664211</v>
+        <v>1.028103332878796</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.036383343335093</v>
+        <v>1.020319669237175</v>
       </c>
       <c r="N5">
-        <v>1.028262114304485</v>
+        <v>1.020530735848844</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022349181797588</v>
+        <v>1.000350604907509</v>
       </c>
       <c r="D6">
-        <v>1.027826901338637</v>
+        <v>1.0186008514959</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.034001340178454</v>
+        <v>1.010815487969099</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030539577581413</v>
+        <v>1.045236704693674</v>
       </c>
       <c r="J6">
-        <v>1.02683219218369</v>
+        <v>1.019213932325521</v>
       </c>
       <c r="K6">
-        <v>1.030270698004229</v>
+        <v>1.028223955515885</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.036429758475459</v>
+        <v>1.020526572130566</v>
       </c>
       <c r="N6">
-        <v>1.028290411675889</v>
+        <v>1.020661333014895</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022040362641411</v>
+        <v>0.9988871594477258</v>
       </c>
       <c r="D7">
-        <v>1.027594852236186</v>
+        <v>1.017501836259171</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.03362122881917</v>
+        <v>1.009111208999305</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030474010977554</v>
+        <v>1.044788356028242</v>
       </c>
       <c r="J7">
-        <v>1.02663781882767</v>
+        <v>1.018313273570672</v>
       </c>
       <c r="K7">
-        <v>1.030099562853277</v>
+        <v>1.027390588548417</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.036110531272218</v>
+        <v>1.019097934612582</v>
       </c>
       <c r="N7">
-        <v>1.028095762287409</v>
+        <v>1.019759395221308</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="C8">
-        <v>1.020748924795312</v>
+        <v>0.9926237752852296</v>
       </c>
       <c r="D8">
-        <v>1.026623573027708</v>
+        <v>1.012797025372066</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.032031863925194</v>
+        <v>1.001818408804906</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03019588434908</v>
+        <v>1.042836549366502</v>
       </c>
       <c r="J8">
-        <v>1.025823596883825</v>
+        <v>1.014448131514124</v>
       </c>
       <c r="K8">
-        <v>1.0293815518751</v>
+        <v>1.023806398650415</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.034774516342468</v>
+        <v>1.012973804800077</v>
       </c>
       <c r="N8">
-        <v>1.027280384055011</v>
+        <v>1.015888764219701</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.0184708829989</v>
+        <v>0.9809861381463654</v>
       </c>
       <c r="D9">
-        <v>1.024907000218624</v>
+        <v>1.004055468271935</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.029229015656958</v>
+        <v>0.9882701991153301</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029690470761215</v>
+        <v>1.039086874325294</v>
       </c>
       <c r="J9">
-        <v>1.024382160812531</v>
+        <v>1.007228665646513</v>
       </c>
       <c r="K9">
-        <v>1.02810619455814</v>
+        <v>1.017083089227576</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.032413840623586</v>
+        <v>1.001556494817432</v>
       </c>
       <c r="N9">
-        <v>1.02583690097916</v>
+        <v>1.008659045882474</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.016950585792647</v>
+        <v>0.9727730793960685</v>
       </c>
       <c r="D10">
-        <v>1.023759253726228</v>
+        <v>0.9978910426159034</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.027358913980313</v>
+        <v>0.9787070583227651</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029343244027463</v>
+        <v>1.036360573654988</v>
       </c>
       <c r="J10">
-        <v>1.023416723387171</v>
+        <v>1.002110193253424</v>
       </c>
       <c r="K10">
-        <v>1.027249164808804</v>
+        <v>1.012298479628508</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.030835672921002</v>
+        <v>0.9934717086333075</v>
       </c>
       <c r="N10">
-        <v>1.02487009252192</v>
+        <v>1.003533304671489</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.016291895986903</v>
+        <v>0.9690963371056392</v>
       </c>
       <c r="D11">
-        <v>1.023261475029037</v>
+        <v>0.9951336530027353</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.026548758755526</v>
+        <v>0.9744247139180888</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029190454348271</v>
+        <v>1.035121896430726</v>
       </c>
       <c r="J11">
-        <v>1.022997616177442</v>
+        <v>0.9998137556693596</v>
       </c>
       <c r="K11">
-        <v>1.026876453847202</v>
+        <v>1.010147928735179</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.030151256936482</v>
+        <v>0.9898456153368483</v>
       </c>
       <c r="N11">
-        <v>1.02445039013188</v>
+        <v>1.001233605882651</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016047170019769</v>
+        <v>0.967711358250945</v>
       </c>
       <c r="D12">
-        <v>1.023076458533907</v>
+        <v>0.9940954185151669</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.026247771084044</v>
+        <v>0.9728113552056258</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029133335275024</v>
+        <v>1.034652640621221</v>
       </c>
       <c r="J12">
-        <v>1.022841780807762</v>
+        <v>0.9989480063022311</v>
       </c>
       <c r="K12">
-        <v>1.026737770458211</v>
+        <v>1.009336622067887</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.029896874090527</v>
+        <v>0.9884786661228862</v>
       </c>
       <c r="N12">
-        <v>1.024294333458101</v>
+        <v>1.000366627052118</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.01609966725937</v>
+        <v>0.9680093331306058</v>
       </c>
       <c r="D13">
-        <v>1.023116150593501</v>
+        <v>0.9943187707830805</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.026312336698756</v>
+        <v>0.9731584784039778</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029145604078687</v>
+        <v>1.034753718994638</v>
       </c>
       <c r="J13">
-        <v>1.022875215278313</v>
+        <v>0.9991343016211071</v>
       </c>
       <c r="K13">
-        <v>1.026767529461964</v>
+        <v>1.009511226809865</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.029951447346376</v>
+        <v>0.9887728098996359</v>
       </c>
       <c r="N13">
-        <v>1.024327815409436</v>
+        <v>1.000553186931715</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.016271668073557</v>
+        <v>0.9689822546705688</v>
       </c>
       <c r="D14">
-        <v>1.023246183939723</v>
+        <v>0.9950481228670234</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.026523880252519</v>
+        <v>0.974291825248055</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029185740337162</v>
+        <v>1.035083296913642</v>
       </c>
       <c r="J14">
-        <v>1.022984738047509</v>
+        <v>0.9997424570130682</v>
       </c>
       <c r="K14">
-        <v>1.026864995169707</v>
+        <v>1.0100811248123</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.030130232847518</v>
+        <v>0.9897330395288</v>
       </c>
       <c r="N14">
-        <v>1.024437493713526</v>
+        <v>1.001162205974089</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.0163776355866</v>
+        <v>0.969579112858923</v>
       </c>
       <c r="D15">
-        <v>1.023326285976234</v>
+        <v>0.9954956191022627</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.026654211228135</v>
+        <v>0.9749870632102848</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029210421091588</v>
+        <v>1.035285134429445</v>
       </c>
       <c r="J15">
-        <v>1.023052197397883</v>
+        <v>1.000115449651952</v>
       </c>
       <c r="K15">
-        <v>1.026925014953706</v>
+        <v>1.010430581193835</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.030240367221882</v>
+        <v>0.9903219724033705</v>
       </c>
       <c r="N15">
-        <v>1.024505048863915</v>
+        <v>1.001535728305304</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016994292584457</v>
+        <v>0.9730144569244451</v>
       </c>
       <c r="D16">
-        <v>1.023792272903852</v>
+        <v>0.9980721196753073</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.027412672991497</v>
+        <v>0.9789881621323546</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02935333281624</v>
+        <v>1.03644152025588</v>
       </c>
       <c r="J16">
-        <v>1.023444515677939</v>
+        <v>1.002260852863424</v>
       </c>
       <c r="K16">
-        <v>1.027273866470481</v>
+        <v>1.012439489674637</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.030881072944418</v>
+        <v>0.9937096176722806</v>
       </c>
       <c r="N16">
-        <v>1.024897924280929</v>
+        <v>1.003684178235417</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.017381000180749</v>
+        <v>0.9751363129567523</v>
       </c>
       <c r="D17">
-        <v>1.024084361128731</v>
+        <v>0.9996641636185825</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.027888330834929</v>
+        <v>0.9814590906568621</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029442324881328</v>
+        <v>1.037151033616245</v>
       </c>
       <c r="J17">
-        <v>1.023690321007975</v>
+        <v>1.003584675175201</v>
       </c>
       <c r="K17">
-        <v>1.027492260499639</v>
+        <v>1.013678083826517</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.03128268637582</v>
+        <v>0.9958002112461736</v>
       </c>
       <c r="N17">
-        <v>1.025144078682728</v>
+        <v>1.005009880526721</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01760652247856</v>
+        <v>0.9763624204631037</v>
       </c>
       <c r="D18">
-        <v>1.024254654333901</v>
+        <v>1.000584326032443</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.028165736591434</v>
+        <v>0.982886799394984</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02949399718683</v>
+        <v>1.0375592980656</v>
       </c>
       <c r="J18">
-        <v>1.023833592208224</v>
+        <v>1.004349160805348</v>
       </c>
       <c r="K18">
-        <v>1.027619490553001</v>
+        <v>1.014392980865019</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.031516838601541</v>
+        <v>0.9970076153259034</v>
       </c>
       <c r="N18">
-        <v>1.025287553344514</v>
+        <v>1.00577545181415</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017683413374185</v>
+        <v>0.9767785690279176</v>
       </c>
       <c r="D19">
-        <v>1.024312706857649</v>
+        <v>1.000896666821444</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.028260318485469</v>
+        <v>0.9833713563043608</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029511576199345</v>
+        <v>1.037697570835892</v>
       </c>
       <c r="J19">
-        <v>1.023882426535153</v>
+        <v>1.00460854913559</v>
       </c>
       <c r="K19">
-        <v>1.027662846334767</v>
+        <v>1.014635480126207</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.031596661178274</v>
+        <v>0.997417308387437</v>
       </c>
       <c r="N19">
-        <v>1.025336457021788</v>
+        <v>1.006035208505573</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017339514018322</v>
+        <v>0.9749098592247079</v>
       </c>
       <c r="D20">
-        <v>1.02405303077911</v>
+        <v>0.9994942317630577</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.027837301130768</v>
+        <v>0.9811953942329326</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029432801208018</v>
+        <v>1.037075489886419</v>
       </c>
       <c r="J20">
-        <v>1.023663959065125</v>
+        <v>1.00344344066593</v>
       </c>
       <c r="K20">
-        <v>1.027468844968864</v>
+        <v>1.013545980329318</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.031239607623787</v>
+        <v>0.995577160473396</v>
       </c>
       <c r="N20">
-        <v>1.025117679302895</v>
+        <v>1.004868445448248</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.016221019760209</v>
+        <v>0.9686962955460207</v>
       </c>
       <c r="D21">
-        <v>1.02320789565101</v>
+        <v>0.9948337403407308</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.026461587615721</v>
+        <v>0.9739587219782093</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029173931316854</v>
+        <v>1.034986500705841</v>
       </c>
       <c r="J21">
-        <v>1.022952490747205</v>
+        <v>0.9995637284325372</v>
       </c>
       <c r="K21">
-        <v>1.026836300625658</v>
+        <v>1.009913654601125</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.030077589407463</v>
+        <v>0.9894508399123748</v>
       </c>
       <c r="N21">
-        <v>1.024405200618356</v>
+        <v>1.000983223578473</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.015517435005414</v>
+        <v>0.9646774119649622</v>
       </c>
       <c r="D22">
-        <v>1.022675835473592</v>
+        <v>0.9918219729118557</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.025596274317363</v>
+        <v>0.9692765530313967</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029009050976622</v>
+        <v>1.033619863465897</v>
       </c>
       <c r="J22">
-        <v>1.022504234940262</v>
+        <v>0.9970502297539567</v>
       </c>
       <c r="K22">
-        <v>1.026437195153753</v>
+        <v>1.007557197805826</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.029346054536984</v>
+        <v>0.9854822462265173</v>
       </c>
       <c r="N22">
-        <v>1.023956308236753</v>
+        <v>0.9984661554434672</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.015890451276247</v>
+        <v>0.9668189519468715</v>
       </c>
       <c r="D23">
-        <v>1.022957955931129</v>
+        <v>0.9934265718289473</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.026055026731559</v>
+        <v>0.9717717103421599</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029096657938545</v>
+        <v>1.034349535852447</v>
       </c>
       <c r="J23">
-        <v>1.022741951761423</v>
+        <v>0.9983899688566196</v>
       </c>
       <c r="K23">
-        <v>1.026648901145663</v>
+        <v>1.008813523995918</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.029733943363829</v>
+        <v>0.9875975772057582</v>
       </c>
       <c r="N23">
-        <v>1.024194362643066</v>
+        <v>0.9998077971293264</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017358259945609</v>
+        <v>0.9750122194790317</v>
       </c>
       <c r="D24">
-        <v>1.024067187853078</v>
+        <v>0.9995710427098796</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.027860359372645</v>
+        <v>0.9813145890379217</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029437105272888</v>
+        <v>1.037109642067596</v>
       </c>
       <c r="J24">
-        <v>1.023675871210131</v>
+        <v>1.003507282134494</v>
       </c>
       <c r="K24">
-        <v>1.027479425919637</v>
+        <v>1.013605695508832</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.031259073372561</v>
+        <v>0.9956779845212187</v>
       </c>
       <c r="N24">
-        <v>1.025129608364513</v>
+        <v>1.004932377579019</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019060092851144</v>
+        <v>0.9840709157997682</v>
       </c>
       <c r="D25">
-        <v>1.025351370905135</v>
+        <v>1.006372110645841</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.029953884881316</v>
+        <v>0.9918614647735851</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029822946059379</v>
+        <v>1.040094783595695</v>
       </c>
       <c r="J25">
-        <v>1.024755596665057</v>
+        <v>1.00914651147451</v>
       </c>
       <c r="K25">
-        <v>1.028437103430592</v>
+        <v>1.018872306640129</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.033024900902748</v>
+        <v>1.004587448651885</v>
       </c>
       <c r="N25">
-        <v>1.026210867153432</v>
+        <v>1.010579615271526</v>
       </c>
     </row>
   </sheetData>
